--- a/Email_Folder.xlsx
+++ b/Email_Folder.xlsx
@@ -14,105 +14,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>File_Name_Sheet</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>ชื่อฝ่ายสายงาน</t>
   </si>
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>อซจ.</t>
+    <t>ผจก. อซจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/17PNPyoyLXMuEOP-KG5OhKMVnfelk4268?usp=drive_link</t>
   </si>
   <si>
-    <t>สสส.</t>
+    <t>ผจก. สสส</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/16Pxc-Hrdkq05Ms7Zrbvd6Ubr7xOi1_hz?usp=drive_link</t>
   </si>
   <si>
-    <t>สมบ.</t>
+    <t>ผจก. สมบ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1gNn_X0br7LTYJFRP-Ao_SviiDSXv3fYC?usp=drive_link</t>
   </si>
   <si>
-    <t>สฐฐ.</t>
+    <t>ผจก. สฐฐ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1HXQOmrQFDW1O3hTsFEfgmvCtkcNUC006?usp=drive_link</t>
   </si>
   <si>
-    <t>วฐฐ.</t>
+    <t>ผจก. วฐฐ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1r66SU_vBx9AI2pEUnYpYuwdCOCgY0NYc?usp=drive_link</t>
   </si>
   <si>
-    <t>มดจ.</t>
+    <t>ผจก. มดจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1hXe_CynRw9ncprVVYrZ7hQJ8Agh7FLFT?usp=drive_link</t>
   </si>
   <si>
-    <t>ภดจ.</t>
+    <t>ผจก. ภดจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/13OEfI3UgUxu-zjc2K6F9_1GrdQikH9Yc?usp=drive_link</t>
   </si>
   <si>
-    <t>พซจ.</t>
+    <t>ผจก. พซจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1S8xpYBkNYdAkp4UGoSiSDZ_iDw-BWmXX?usp=drive_link</t>
   </si>
   <si>
-    <t>บดจ.</t>
+    <t>ผจก. ผรร</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1oyE95IhnXbUcyy6q7_80uHpeantRwd7M?usp=sharing</t>
+  </si>
+  <si>
+    <t>ผจก. บดจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1CQBERF_DyG_50Q8QfEYxgAO-EH0CUgTd?usp=drive_link</t>
   </si>
   <si>
-    <t>บกบ.</t>
+    <t>ผจก. บกบ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1fiExlL3GazjZ88G_aHRoK8NxoUBrinN8?usp=drive_link</t>
   </si>
   <si>
-    <t>ทมบ.</t>
+    <t>ผจก. ทมบ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1LyHi1pTNv5E8U0KUVcH_VPAckxVJuRR9?usp=drive_link</t>
   </si>
   <si>
-    <t>ทฐฐ.</t>
+    <t>ผจก. ทฐฐ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1gKpMWoYyZCd86qZmoa3tqxiIKnMKokV1?usp=drive_link</t>
   </si>
   <si>
-    <t>ญสส.</t>
+    <t>ผจก. ญสส</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1-EncyvLlKaaXq2ih_hXOWBPZB_5eng_5?usp=drive_link</t>
   </si>
   <si>
-    <t>คมบ.</t>
+    <t>ผจก. คมบ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1JazO3VPYSeYTrVvWjavgAG_0gew_0MMN?usp=drive_link</t>
   </si>
   <si>
-    <t>ขดจ.</t>
+    <t>ผจก ขทค</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1DzefNBtVzDFbR2JuXNDq7hkFecjUAm0c?usp=sharing</t>
+  </si>
+  <si>
+    <t>ผจก. ขดจ</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1Z63HquMqQcrLv9V8faalecX8Lpl6sktU?usp=drive_link</t>
   </si>
   <si>
-    <t>กสส.</t>
+    <t>ผจก. กสส</t>
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/1WYZ2kohLb4SKQjsJkUSaUbHh-UyEw3pf?usp=drive_link</t>
@@ -123,7 +135,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +154,13 @@
       <sz val="11"/>
       <color rgb="FF0000ff"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -172,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -180,8 +199,11 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,14 +507,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="40.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="79.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="40.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="79.57642857142856" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -503,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -511,7 +533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -519,7 +541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -527,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -535,7 +557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,7 +565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -551,7 +573,7 @@
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -559,7 +581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="20.25">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -567,7 +589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="20.25">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -575,7 +597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="20.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -583,7 +605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -591,7 +613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -599,7 +621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="20.25">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -607,7 +629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="20.25">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -615,7 +637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -623,12 +645,28 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
